--- a/database/meta/info_tags.xlsx
+++ b/database/meta/info_tags.xlsx
@@ -1,53 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\opt\github\TorCMS\database\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bukun\AppData\Local\Temp\Mxt91\RemoteFiles\133156_3_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="771" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="771"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
-  <si>
-    <r>
-      <t>通用</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF900800"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF900800"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>日期</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
   <si>
     <t>Record,record</t>
   </si>
@@ -367,7 +339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
@@ -395,14 +367,6 @@
       <sz val="10"/>
       <color rgb="FF900800"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF900800"/>
-      <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -490,10 +454,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -892,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -907,61 +871,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="34.15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+      <c r="A1" s="2">
+        <v>9</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="78.400000000000006" customHeight="1">
@@ -969,63 +933,63 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="12.75" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6">
@@ -1073,10 +1037,10 @@
     <row r="4" spans="1:20" ht="12.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
@@ -1121,10 +1085,10 @@
     <row r="5" spans="1:20" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
@@ -1169,10 +1133,10 @@
     <row r="6" spans="1:20" ht="12.75" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -1217,10 +1181,10 @@
     <row r="7" spans="1:20" ht="12.75" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -1265,10 +1229,10 @@
     <row r="8" spans="1:20" ht="12.75" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -1312,10 +1276,10 @@
     </row>
     <row r="9" spans="1:20" ht="12.75" customHeight="1">
       <c r="A9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6">
@@ -1361,10 +1325,10 @@
     <row r="10" spans="1:20" ht="12.75" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -1409,10 +1373,10 @@
     <row r="11" spans="1:20" ht="12.75" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -1457,10 +1421,10 @@
     <row r="12" spans="1:20" ht="12.75" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -1505,10 +1469,10 @@
     <row r="13" spans="1:20" ht="12.75" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -1553,10 +1517,10 @@
     <row r="14" spans="1:20" ht="12.75" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -1601,10 +1565,10 @@
     <row r="15" spans="1:20" ht="12.75" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -1648,10 +1612,10 @@
     </row>
     <row r="16" spans="1:20" ht="12.75" customHeight="1">
       <c r="A16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6">
@@ -1697,10 +1661,10 @@
     <row r="17" spans="1:20" ht="12.75" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
@@ -1745,10 +1709,10 @@
     <row r="18" spans="1:20" ht="12.75" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
@@ -1793,10 +1757,10 @@
     <row r="19" spans="1:20" ht="12.75" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="6">
         <v>1</v>
@@ -1841,10 +1805,10 @@
     <row r="20" spans="1:20" ht="12.75" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -1889,10 +1853,10 @@
     <row r="21" spans="1:20" ht="12.75" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
@@ -1936,10 +1900,10 @@
     </row>
     <row r="22" spans="1:20" ht="12.75" customHeight="1">
       <c r="A22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6">
@@ -1981,10 +1945,10 @@
     <row r="23" spans="1:20" ht="12.75" customHeight="1">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -2027,10 +1991,10 @@
     <row r="24" spans="1:20" ht="12.75" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="6">
         <v>1</v>
@@ -2071,10 +2035,10 @@
     <row r="25" spans="1:20" ht="12.75" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
@@ -2114,10 +2078,10 @@
     </row>
     <row r="26" spans="1:20" ht="12.75" customHeight="1">
       <c r="A26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6">
@@ -2167,10 +2131,10 @@
     <row r="27" spans="1:20" ht="12.75" customHeight="1">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
@@ -2221,10 +2185,10 @@
     <row r="28" spans="1:20" ht="12.75" customHeight="1">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -2273,10 +2237,10 @@
     <row r="29" spans="1:20" ht="12.75" customHeight="1">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="6">
         <v>1</v>
@@ -2325,10 +2289,10 @@
     <row r="30" spans="1:20" ht="12.75" customHeight="1">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" s="6">
         <v>1</v>
@@ -2376,10 +2340,10 @@
     </row>
     <row r="31" spans="1:20" ht="12.75" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="6">
@@ -2431,10 +2395,10 @@
     <row r="32" spans="1:20" ht="12.75" customHeight="1">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" s="6">
         <v>1</v>
@@ -2487,10 +2451,10 @@
     <row r="33" spans="1:20" ht="12.75" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -2542,10 +2506,10 @@
     </row>
     <row r="34" spans="1:20" ht="12.75" customHeight="1">
       <c r="A34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="6">
@@ -2597,10 +2561,10 @@
     <row r="35" spans="1:20" ht="12.75" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35" s="6">
         <v>1</v>
@@ -2653,10 +2617,10 @@
     <row r="36" spans="1:20" ht="12.75" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D36" s="6">
         <v>1</v>
@@ -2707,10 +2671,10 @@
     <row r="37" spans="1:20" ht="12.75" customHeight="1">
       <c r="A37" s="5"/>
       <c r="B37" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37" s="6">
         <v>1</v>
@@ -2763,10 +2727,10 @@
     <row r="38" spans="1:20" ht="12.75" customHeight="1">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38" s="6">
         <v>1</v>
@@ -2819,10 +2783,10 @@
     <row r="39" spans="1:20" ht="12.75" customHeight="1">
       <c r="A39" s="5"/>
       <c r="B39" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="6">
         <v>1</v>
@@ -2874,10 +2838,10 @@
     </row>
     <row r="40" spans="1:20" ht="12.75" customHeight="1">
       <c r="A40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="6">
@@ -2921,10 +2885,10 @@
     <row r="41" spans="1:20" ht="12.75" customHeight="1">
       <c r="A41" s="5"/>
       <c r="B41" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D41" s="6">
         <v>1</v>
@@ -2969,10 +2933,10 @@
     <row r="42" spans="1:20" ht="12.75" customHeight="1">
       <c r="A42" s="5"/>
       <c r="B42" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D42" s="6">
         <v>1</v>
@@ -3017,10 +2981,10 @@
     <row r="43" spans="1:20" ht="12.75" customHeight="1">
       <c r="A43" s="5"/>
       <c r="B43" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D43" s="6">
         <v>1</v>
@@ -3065,10 +3029,10 @@
     <row r="44" spans="1:20" ht="12.75" customHeight="1">
       <c r="A44" s="5"/>
       <c r="B44" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
@@ -3112,10 +3076,10 @@
     </row>
     <row r="45" spans="1:20" ht="12.75" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6">
@@ -3159,10 +3123,10 @@
     <row r="46" spans="1:20" ht="12.75" customHeight="1">
       <c r="A46" s="5"/>
       <c r="B46" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46" s="6">
         <v>1</v>
@@ -3205,10 +3169,10 @@
     <row r="47" spans="1:20" ht="12.75" customHeight="1">
       <c r="A47" s="5"/>
       <c r="B47" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" s="6">
         <v>1</v>
@@ -3251,10 +3215,10 @@
     <row r="48" spans="1:20" ht="12.75" customHeight="1">
       <c r="A48" s="5"/>
       <c r="B48" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D48" s="6">
         <v>1</v>
@@ -3297,10 +3261,10 @@
     <row r="49" spans="1:20" ht="12.75" customHeight="1">
       <c r="A49" s="5"/>
       <c r="B49" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D49" s="6">
         <v>1</v>
@@ -3341,206 +3305,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:T8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
-  <cols>
-    <col min="1" max="2" width="8.5546875"/>
-    <col min="3" max="3" width="17"/>
-    <col min="4" max="1025" width="8.5546875"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="34.15" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="78.400000000000006" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="11.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="6"/>
-    </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="11.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="6"/>
-    </row>
-    <row r="6" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="6"/>
-    </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>